--- a/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -5,18 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\URB_2060_PUN\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\URB_2060_PUN\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481D0569-424C-45CF-8566-0C86F5882DAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3980BB38-AB90-4ACF-9584-E12205EA4D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20175" yWindow="1965" windowWidth="17280" windowHeight="13980" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
     <sheet name="INDOOR_COMFORT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -540,29 +551,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -606,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -650,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -694,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -738,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -782,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -826,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -871,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -916,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -960,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1048,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1229,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -1317,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -1364,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1452,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1506,25 +1517,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1567,8 +1578,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="7">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="7">
         <v>30</v>
@@ -1577,7 +1587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1604,7 +1614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1631,7 +1641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1658,7 +1668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1685,7 +1695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1739,7 +1749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1793,7 +1803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1820,7 +1830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1847,7 +1857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1874,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1901,7 +1911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1953,7 +1963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -1979,7 +1989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -2006,7 +2016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -2033,7 +2043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2060,7 +2070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_PUN/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\URB_2060_PUN\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3980BB38-AB90-4ACF-9584-E12205EA4D3A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E13F6BB-4290-4A77-9F63-C02A26458DB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="9">
         <v>70</v>
